--- a/public/assets/excel-template/feeder-pillar.xlsx
+++ b/public/assets/excel-template/feeder-pillar.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Visual Check</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Pembersihan</t>
   </si>
@@ -62,9 +59,6 @@
     <t>Coordinate</t>
   </si>
   <si>
-    <t>Pintu Tidak berkunci/Rosak</t>
-  </si>
-  <si>
     <t>Vandalism</t>
   </si>
   <si>
@@ -75,13 +69,25 @@
   </si>
   <si>
     <t>Pembersihan Iklan haram/ banner</t>
+  </si>
+  <si>
+    <t>Pintu</t>
+  </si>
+  <si>
+    <t>Tidak Berkunci</t>
+  </si>
+  <si>
+    <t>Rosak</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,8 +95,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +133,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -149,11 +175,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -162,6 +185,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,74 +490,85 @@
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="26.42578125" customWidth="1"/>
-    <col min="15" max="15" width="48.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" customWidth="1"/>
+    <col min="17" max="17" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K1:N1"/>
+  <mergeCells count="2">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
